--- a/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Template/給班導師樣版.xlsx
+++ b/JHKaoHsiungScoreReports/KaoHsingReExamScoreReport/KaoHsingReExamScoreReport/Template/給班導師樣版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>年級</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,6 +86,10 @@
   <si>
     <t>綜合</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>語文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,19 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="4" customWidth="1"/>
-    <col min="5" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="4" customWidth="1"/>
+    <col min="15" max="22" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,56 +503,62 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -554,14 +571,16 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
